--- a/results_exact/28_transbordo_porto.xlsx
+++ b/results_exact/28_transbordo_porto.xlsx
@@ -444,29 +444,29 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>ILHÉUS, BA, Brazil</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>VITÓRIA, ES, Brazil</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>SANTOS, SP, Brazil</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>SÃO LUIZ, MA, Brazil</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ILHÉUS, BA, Brazil</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FIGUEIRÓPOLIS, TO, Brazil</t>
+          <t>IPAMERI,GO, Brazil</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -476,20 +476,20 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>910711.0495058603</v>
+        <v>178404.652</v>
       </c>
       <c r="E2" t="n">
-        <v>465403.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IPAMERI,GO, Brazil</t>
+          <t>FIGUEIRÓPOLIS, TO, Brazil</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>178404.652</v>
+        <v>442306.0360019066</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1628912.04</v>
       </c>
     </row>
     <row r="4">
@@ -508,13 +508,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>105627.0655058602</v>
+        <v>23097.40399809339</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>325779.0719999998</v>
       </c>
       <c r="D4" t="n">
-        <v>623504.9904941397</v>
+        <v>380255.580001907</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -523,14 +523,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RIO VERDE, GO, Brazil</t>
+          <t>ANÁPOLIS, GO, Brazil</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41747.35449413909</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2789456.905505861</v>
+        <v>294755.512</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -542,17 +542,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SÃO SIMÃO, GO, Brazil</t>
+          <t>RIO VERDE, GO, Brazil</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>736888.7800000001</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>2831204.26</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>94696</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -580,17 +580,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ANÁPOLIS, GO, Brazil</t>
+          <t>SÃO SIMÃO, GO, Brazil</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>294755.512</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>736888.7800000001</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ILHÉUS, BA, Brazil</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>VITÓRIA, ES, Brazil</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>SANTOS, SP, Brazil</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>SÃO LUIZ, MA, Brazil</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ILHÉUS, BA, Brazil</t>
         </is>
       </c>
     </row>
@@ -645,15 +645,15 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>155376412.1561948</v>
+        <v>14994911.0006</v>
       </c>
       <c r="D2" t="n">
-        <v>79402480.89840001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>30437617.67772001</v>
+        <v>49100393.05657165</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -662,18 +662,18 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>178659072.5472</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>18021033.64595481</v>
+        <v>2755982.245052503</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>47997030.67775997</v>
       </c>
       <c r="C4" t="n">
-        <v>106376186.4282052</v>
+        <v>49798270.75704974</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -681,10 +681,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7122516.15024507</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>326171195.9608003</v>
+        <v>36322721.74376</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -698,10 +698,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>68059047.72080001</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>265623583.6732</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>11072803.28</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -723,13 +723,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>50288237.90232001</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>60159599.99920001</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -757,22 +757,22 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ILHÉUS, BA, Brazil</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>VITÓRIA, ES, Brazil</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>SANTOS, SP, Brazil</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>SÃO LUIZ, MA, Brazil</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ILHÉUS, BA, Brazil</t>
         </is>
       </c>
     </row>
@@ -784,15 +784,15 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>24701944364.58705</v>
+        <v>3328602635.1552</v>
       </c>
       <c r="D2" t="n">
-        <v>12827612504.484</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4946632922.190081</v>
+        <v>12190993771.39715</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -801,18 +801,18 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>44182284390.552</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4178376444.409028</v>
+        <v>699988770.6960183</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>12887109889.94303</v>
       </c>
       <c r="C4" t="n">
-        <v>18622472953.08467</v>
+        <v>12986001841.08272</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -820,10 +820,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1566661321.572456</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>61049356469.67489</v>
+        <v>9313616874.408241</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>13158070277.875</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>61963028633.295</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>2129234825.2</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>9313616874.408241</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>13158070277.875</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1404733769.006295</v>
+        <v>1236716706.325243</v>
       </c>
       <c r="B2" t="n">
-        <v>153775882400692.1</v>
+        <v>146324254834634.8</v>
       </c>
     </row>
   </sheetData>
